--- a/数据处理/实验数据.xlsx
+++ b/数据处理/实验数据.xlsx
@@ -1019,7 +1019,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1075,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1108,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1124,6 +1141,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10756,8 +10776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11169,26 +11189,26 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16">
+        <v>2</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -11337,18 +11357,18 @@
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16">
         <v>2</v>
       </c>
       <c r="G40" s="13"/>
@@ -11484,18 +11504,18 @@
       <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16">
         <v>2</v>
       </c>
       <c r="G47" s="13"/>
